--- a/biology/Botanique/Liste_de_cocktails_par_type_d'alcool/Liste_de_cocktails_par_type_d'alcool.xlsx
+++ b/biology/Botanique/Liste_de_cocktails_par_type_d'alcool/Liste_de_cocktails_par_type_d'alcool.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette liste, non exhaustive, présente les cocktails avec pour base différents alcools :
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Absinthe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Mort dans l'après-midi[1]
-Vesper vert[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mort dans l'après-midi
+Vesper vert.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,28 +556,30 @@
           <t>Bière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Berliner Weiße[3]
-Black and Tan[4]
-Black velvet[5]
-Boilmaker[6]
-Diesel[7]
-Hangman's Blood[8]
-Irish Car Bomb[9]
-Michelada[10]
-Monaco[11]
-Panaché[12]
-Picon[13]
-Porchcrawler[14]
-Sake bomb[15]
-Snakebite [16]
-Tango[17]
-Twist[18]
-U-Boot[19]
-Valse[20]
-Yorsh[21]
-Zythogala[22]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Berliner Weiße
+Black and Tan
+Black velvet
+Boilmaker
+Diesel
+Hangman's Blood
+Irish Car Bomb
+Michelada
+Monaco
+Panaché
+Picon
+Porchcrawler
+Sake bomb
+Snakebite 
+Tango
+Twist
+U-Boot
+Valse
+Yorsh
+Zythogala</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,11 +607,13 @@
           <t>Cachaça</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Batida[23]
-Caïpirinha[24]
-Rabo-de-Galo[25]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Batida
+Caïpirinha
+Rabo-de-Galo</t>
         </is>
       </c>
     </row>
@@ -605,7 +623,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -623,21 +641,23 @@
           <t>Cognac ou brandy</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Alexander (IBA)[26]
-Bandista[27]
-Baccara[28]
-French Connection (IBA)[29]
-East India[30]
-Futschi[31].
-Horse's Neck[32]
-Knickebein[33]
-Pink Love[34]
-Sidecar[35]
-Summit[36]
-Sol y sombra[37]
-Stinger[38]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Alexander (IBA)
+Bandista
+Baccara
+French Connection (IBA)
+East India
+Futschi.
+Horse's Neck
+Knickebein
+Pink Love
+Sidecar
+Summit
+Sol y sombra
+Stinger</t>
         </is>
       </c>
     </row>
@@ -647,7 +667,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -665,25 +685,27 @@
           <t>Gin</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Army &amp; Navy[39]
-Blue Lady[40]
-Blue Moon[41]
-Cardinal[42]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Army &amp; Navy
+Blue Lady
+Blue Moon
+Cardinal
 Dry Martini
-Gin Basil Smash[43]
-Gin Fizz (IBA)[44]
-Gin Tonic[45]
-Last Word[46]
-Long Island iced tea[47]
-Negroni (IBA)[48]
-Pink gin[49]
-Pink Lady[50]
-Royal Romance[51]
-Singapore sling (IBA)[52]
-Tuxedo[53]
-White Lady (IBA)[54]</t>
+Gin Basil Smash
+Gin Fizz (IBA)
+Gin Tonic
+Last Word
+Long Island iced tea
+Negroni (IBA)
+Pink gin
+Pink Lady
+Royal Romance
+Singapore sling (IBA)
+Tuxedo
+White Lady (IBA)</t>
         </is>
       </c>
     </row>
@@ -693,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -711,13 +733,15 @@
           <t>Pastis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Feuille morte[55]
-Mauresque[56]
-Perroquet[57]
-Rourou[58]
-Tomate[59]</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Feuille morte
+Mauresque
+Perroquet
+Rourou
+Tomate</t>
         </is>
       </c>
     </row>
@@ -727,7 +751,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -745,29 +769,31 @@
           <t>Rhum</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Airmail
-Bacardi[60]
-Blow My Skull Off[61]
-Blue Hawaii[62]
-Canchánchara[63]
-Cuba libre (IBA)[64]
-Daïquiri[65]
-El Presidente[66].
-Flamingo[67]
-Grog[68]
-Macuá[69]
-Mai Tai (IBA)[70],[71]
-Menyul[72]
-Mojito (IBA)[73]
-Old Cuban[74]
-Ouragan[75]
-Painkiller[76]
-Petroleum Malum[77]
-Piña colada (IBA)[78]
-Ti-punch[79]
-Zombie[80]</t>
+Bacardi
+Blow My Skull Off
+Blue Hawaii
+Canchánchara
+Cuba libre (IBA)
+Daïquiri
+El Presidente.
+Flamingo
+Grog
+Macuá
+Mai Tai (IBA),
+Menyul
+Mojito (IBA)
+Old Cuban
+Ouragan
+Painkiller
+Petroleum Malum
+Piña colada (IBA)
+Ti-punch
+Zombie</t>
         </is>
       </c>
     </row>
@@ -777,7 +803,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -795,10 +821,12 @@
           <t>Tequila</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Margarita[81]
-Tequila sunrise[82]</t>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Margarita
+Tequila sunrise</t>
         </is>
       </c>
     </row>
@@ -808,7 +836,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -826,16 +854,18 @@
           <t>Vins</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Champagne cocktail (IBA)[83]
-Communard[84]
-Kir (IBA)[85]
-Mimosa[86]
-Sangria[87]
-Soupe angevine[88]
-Soupe champenoise[89]
-Spritz (IBA)[90]</t>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Champagne cocktail (IBA)
+Communard
+Kir (IBA)
+Mimosa
+Sangria
+Soupe angevine
+Soupe champenoise
+Spritz (IBA)</t>
         </is>
       </c>
     </row>
@@ -845,7 +875,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -863,18 +893,20 @@
           <t>Vodka</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Bloody Mary [91]
-Blue Lagoon[92]
-Colombia [93]
-Cosmopolitan[94]
-Mule[95]
-Russe blanc[96]
-Screwdriver[97]
-Sex on the beach[98]
-Tip and Top[99]
-Vodka-Red Bull[100]
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bloody Mary 
+Blue Lagoon
+Colombia 
+Cosmopolitan
+Mule
+Russe blanc
+Screwdriver
+Sex on the beach
+Tip and Top
+Vodka-Red Bull
 Vodka Martini</t>
         </is>
       </c>
@@ -885,7 +917,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -903,19 +935,21 @@
           <t>Whisky/Bourbon</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Algonquin[101]  (whisky de seigle)
-Amber Moon[102]
-Blue blazer[103]
-Irish coffee[104]
-Lynchburg Lemonade[105]
-Manhattan[106]
-Mint julep[107]
-Old Fashioned[108]
-Trinidad sour(IBA)[109],[110]
-Whisky coca[111]
-Whiskey sour[112]</t>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Algonquin  (whisky de seigle)
+Amber Moon
+Blue blazer
+Irish coffee
+Lynchburg Lemonade
+Manhattan
+Mint julep
+Old Fashioned
+Trinidad sour(IBA),
+Whisky coca
+Whiskey sour</t>
         </is>
       </c>
     </row>
@@ -925,7 +959,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_de_cocktails_par_type_d%27alcool</t>
+          <t>Liste_de_cocktails_par_type_d'alcool</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -943,14 +977,16 @@
           <t>Autres alcools</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Adonis[113]
-Bamboo[114]
-Cervelle de singe[115]
-Grüne Wiese[116]
-Longines[117]
-Porn star martini[118]</t>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Adonis
+Bamboo
+Cervelle de singe
+Grüne Wiese
+Longines
+Porn star martini</t>
         </is>
       </c>
     </row>
